--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IR键值" sheetId="1" r:id="rId1"/>
     <sheet name="当前工作" sheetId="3" r:id="rId2"/>
-    <sheet name="计划工作" sheetId="4" r:id="rId3"/>
+    <sheet name="书单" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">当前工作!$B$2:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">当前工作!$B$2:$M$134</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,13 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、签名工具是由aosp自带的 ，主要有三个工具，包括：
-platform.pk8、platform.x509.pem、signapk.jar；
-2、签名的命令
-java -jar signapk.jar platform.x509.pem platform.pk8 my.apk mysigned.apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装apk的几种方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +602,191 @@
   </si>
   <si>
     <t>tobeStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jni native interface guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux下编写java代码，调用本地方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT-IPTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag repository in framework of aosp 4.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、创建java文件，编写java代码；
+2、在代码中使用关键字声明native方法，就可以直接在java代码中调用native方法；
+3、使用javac编译java代码，生成class文件；
+4、使用javah -jni生成头文件，给native文件使用；
+5、创建c/c++文件，编写c/c++代码，实现在java层声明的方法，这一步需要根据一些命名规则来确定native方法的名称；
+6、编译c/c++文件，生成动态链接库，要使用jni相关的头文件，具体方法是：
+gcc -fPIC -shared -I /usr/lib/jvm/jdk1.6.0_45/include/ -I /usr/lib/jvm/jdk1.6.0_45/include/linux/ HelloWorld.c -o HelloWorld.so
+或者
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gcc -fPIC -shared -I $JAVA_HOME/include -I $JAVA_HOME/include/linux Prompt.c -o libPrompt.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7、设置动态链接库的地址:
+LD_LIBRARY_PATH=.
+export LD_LIBRARY_PATH
+8、运行java代码。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the java native interface programmer's guide and specfication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、签名工具是由aosp自带的 ，主要有三个工具，包括：
+platform.pk8、platform.x509.pem、signapk.jar；
+build/target/product/security/platform*
+out/host/linux-x86/framework/signapk.jar
+2、签名的命令
+java -jar signapk.jar platform.x509.pem platform.pk8 my.apk mysigned.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim中的替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n,$s/origin/new/：从文件的第n行开始，将每行的第一个origin替换为new
+n,$s/origin/new/g：从文件的第n行开始，将每行的origin替换为new
+.,$s/origin/new/g：从当前行开始，将每行的第一个origin替换为new
+.,$s/origin/new/g：从当前行开始，将每行的origin替换为new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定义：
+是指应用程序在分配到内存后，由于不合理或者错误的做法导致在释放内存之前就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失去了对该内存的控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，导致了内存的浪费。就像是水一样，有部分水露出了桶外，就失去了该部分水的控制，从而导致了水的浪费。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT-IPTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复出厂设置中部分数据的保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、如何将数据对作业property写入系统，并保证只读？
+  直接写入system.prop，并以"ro."开头，具体格式为：ro.derek.zhuo=123455
+2、system.prop编译后会被加入build.prop中，如何读到相对应的property的值？
+3、system.prop的格式问题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不能全部清掉，需要保留部分数据；
+2、需要保留的数据：
+  1）、主认证地址：
+华为地址：http://182.138.3.142:8082/EDS/jsp/AuthenticationURL（目前默认使用）
+中兴地址：http://182.138.2.29:8080/iptvepg/platform/index.jsp
+  2）、网络地址
+  3）、网管账号
+  4）、网管密码
+3、需求：
+  IPTV设置里面已经关联了出厂设置的apk，所以需要做的就是如果把以上这四个数据设置成出厂数据即可；
+4、方案
+  1）、把数据放在system.prop下面；
+  2）、系统开机的时候在重新放入。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -948,11 +1126,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,27 +1280,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1323,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1460,7 +1740,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1790,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="180" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
@@ -1535,12 +1815,12 @@
       <c r="J3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B4" s="23"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -1565,10 +1845,10 @@
       <c r="J4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="23"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1591,10 +1871,10 @@
       <c r="J5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="23"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -1611,10 +1891,10 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
@@ -1641,10 +1921,10 @@
       <c r="J7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="24"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -1661,10 +1941,10 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="B9" s="24"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="7">
         <v>3</v>
       </c>
@@ -1689,10 +1969,10 @@
       <c r="J9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="7">
         <v>4</v>
       </c>
@@ -1709,10 +1989,10 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="28"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="7">
         <v>5</v>
       </c>
@@ -1729,10 +2009,10 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.15">
-      <c r="B12" s="24"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7">
         <v>6</v>
       </c>
@@ -1749,10 +2029,10 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="7">
         <v>7</v>
       </c>
@@ -1773,10 +2053,10 @@
       <c r="J13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="7">
         <v>8</v>
       </c>
@@ -1797,10 +2077,10 @@
       <c r="J14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -1817,10 +2097,10 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="28"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1835,10 +2115,10 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="28"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1857,10 +2137,10 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="28"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1875,10 +2155,10 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="28"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" ht="48" x14ac:dyDescent="0.15">
-      <c r="B19" s="25"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1895,10 +2175,10 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="28"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="25"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1913,10 +2193,10 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="28"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1931,10 +2211,10 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="25"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1951,10 +2231,10 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="25"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1969,10 +2249,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="28"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="25"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1987,10 +2267,10 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="28"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="25"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -2005,10 +2285,10 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="28"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="25"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="8">
         <v>12</v>
       </c>
@@ -2023,10 +2303,10 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="28"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="25"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="8">
         <v>13</v>
       </c>
@@ -2041,10 +2321,10 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="28"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="25"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2053,10 +2333,10 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="28"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2065,7 +2345,7 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="29"/>
+      <c r="K29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2091,7 +2371,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2101,9 +2381,9 @@
     <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="19" customWidth="1"/>
-    <col min="6" max="6" width="51.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="67.625" style="19" customWidth="1"/>
     <col min="7" max="7" width="29" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="19" customWidth="1"/>
     <col min="9" max="9" width="76.625" style="19" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="19" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="19" customWidth="1"/>
@@ -2113,15 +2393,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:13" s="31" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:13" s="24" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>80</v>
@@ -2151,48 +2431,48 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="228" x14ac:dyDescent="0.15">
-      <c r="B3" s="32">
+    <row r="3" spans="2:13" ht="144" x14ac:dyDescent="0.15">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="28">
         <v>41963</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="28">
         <v>41964</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="96" x14ac:dyDescent="0.15">
-      <c r="B4" s="37">
+      <c r="B4" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -2202,28 +2482,28 @@
         <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39">
+        <v>110</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32">
         <v>41968</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="32">
         <v>41968</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="37">
+      <c r="B5" s="30">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>113</v>
+      <c r="D5" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>93</v>
@@ -2231,23 +2511,23 @@
       <c r="F5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="2:13" ht="216" x14ac:dyDescent="0.15">
-      <c r="B6" s="37">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="2:13" ht="168" x14ac:dyDescent="0.15">
+      <c r="B6" s="30">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>112</v>
+      <c r="D6" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>97</v>
@@ -2255,23 +2535,23 @@
       <c r="F6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="2:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="B7" s="37">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B7" s="30">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>112</v>
+      <c r="D7" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>100</v>
@@ -2279,2112 +2559,2154 @@
       <c r="F7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="2:13" ht="60" x14ac:dyDescent="0.15">
-      <c r="B8" s="37">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:13" ht="72" x14ac:dyDescent="0.15">
+      <c r="B8" s="30">
         <v>6</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>112</v>
+      <c r="D8" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B9" s="30">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="2:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="B9" s="37">
-        <v>7</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="F9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B10" s="30">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="B10" s="37">
-        <v>8</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="E10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B11" s="30">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="2:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="B11" s="37">
-        <v>9</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="D11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B12" s="30">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B12" s="37">
-        <v>10</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="30">
+        <v>11</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="37">
-        <v>11</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B14" s="30">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B14" s="37">
-        <v>12</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="30">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="37">
-        <v>13</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="37">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="2:13" ht="192" x14ac:dyDescent="0.15">
+      <c r="B16" s="30">
         <v>14</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="37">
+      <c r="C16" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B17" s="30">
         <v>15</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="37">
+      <c r="C17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B18" s="30">
         <v>16</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="37">
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B19" s="30">
         <v>17</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="37">
+      <c r="C19" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" ht="168" x14ac:dyDescent="0.15">
+      <c r="B20" s="30">
         <v>18</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="40"/>
+      <c r="C20" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="37">
+      <c r="B21" s="30">
         <v>19</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="40"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="37">
+      <c r="B22" s="30">
         <v>20</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="40"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="37">
+      <c r="B23" s="30">
         <v>21</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="40"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="37">
+      <c r="B24" s="30">
         <v>22</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="40"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="37">
+      <c r="B25" s="30">
         <v>23</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="40"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="37">
+      <c r="B26" s="30">
         <v>24</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="40"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="37">
+      <c r="B27" s="30">
         <v>25</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="40"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B28" s="37">
+      <c r="B28" s="30">
         <v>26</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="40"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="37">
+      <c r="B29" s="30">
         <v>27</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="40"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="37">
+      <c r="B30" s="30">
         <v>28</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="40"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B31" s="37">
+      <c r="B31" s="30">
         <v>29</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="40"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B32" s="37">
+      <c r="B32" s="30">
         <v>30</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="40"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="33"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="37">
+      <c r="B33" s="30">
         <v>31</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="40"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="37">
+      <c r="B34" s="30">
         <v>32</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="37">
+      <c r="B35" s="30">
         <v>33</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B36" s="37">
+      <c r="B36" s="30">
         <v>34</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B37" s="37">
+      <c r="B37" s="30">
         <v>35</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="42"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B38" s="37">
+      <c r="B38" s="30">
         <v>36</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B39" s="37">
+      <c r="B39" s="30">
         <v>37</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="42"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B40" s="37">
+      <c r="B40" s="30">
         <v>38</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B41" s="37">
+      <c r="B41" s="30">
         <v>39</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="42"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B42" s="37">
+      <c r="B42" s="30">
         <v>40</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="42"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B43" s="37">
+      <c r="B43" s="30">
         <v>41</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="37">
+      <c r="B44" s="30">
         <v>42</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="35"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B45" s="37">
+      <c r="B45" s="30">
         <v>43</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="42"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B46" s="37">
+      <c r="B46" s="30">
         <v>44</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="42"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B47" s="37">
+      <c r="B47" s="30">
         <v>45</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="42"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="35"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B48" s="37">
+      <c r="B48" s="30">
         <v>46</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="42"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="35"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="37">
+      <c r="B49" s="30">
         <v>47</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="42"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="35"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B50" s="37">
+      <c r="B50" s="30">
         <v>48</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="42"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="35"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" s="37">
+      <c r="B51" s="30">
         <v>49</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="35"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B52" s="37">
+      <c r="B52" s="30">
         <v>50</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="42"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B53" s="37">
+      <c r="B53" s="30">
         <v>51</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="42"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" s="37">
+      <c r="B54" s="30">
         <v>52</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="42"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" s="37">
+      <c r="B55" s="30">
         <v>53</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="42"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="35"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="37">
+      <c r="B56" s="30">
         <v>54</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="42"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="35"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B57" s="37">
+      <c r="B57" s="30">
         <v>55</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="42"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B58" s="37">
+      <c r="B58" s="30">
         <v>56</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="42"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="35"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B59" s="37">
+      <c r="B59" s="30">
         <v>57</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="42"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B60" s="37">
+      <c r="B60" s="30">
         <v>58</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="42"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="35"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B61" s="37">
+      <c r="B61" s="30">
         <v>59</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="42"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="35"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B62" s="37">
+      <c r="B62" s="30">
         <v>60</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="42"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="35"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B63" s="37">
+      <c r="B63" s="30">
         <v>61</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="42"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="35"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B64" s="37">
+      <c r="B64" s="30">
         <v>62</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="42"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="35"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="37">
+      <c r="B65" s="30">
         <v>63</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="42"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="35"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="37">
+      <c r="B66" s="30">
         <v>64</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="42"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="35"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B67" s="37">
+      <c r="B67" s="30">
         <v>65</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="42"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="35"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B68" s="37">
+      <c r="B68" s="30">
         <v>66</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="42"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="35"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B69" s="37">
+      <c r="B69" s="30">
         <v>67</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="42"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="35"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B70" s="37">
+      <c r="B70" s="30">
         <v>68</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="42"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="35"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B71" s="37">
+      <c r="B71" s="30">
         <v>69</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="42"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="35"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B72" s="37">
+      <c r="B72" s="30">
         <v>70</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="42"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="35"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B73" s="37">
+      <c r="B73" s="30">
         <v>71</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="42"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B74" s="37">
+      <c r="B74" s="30">
         <v>72</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="42"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="35"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B75" s="37">
+      <c r="B75" s="30">
         <v>73</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="42"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="35"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B76" s="37">
+      <c r="B76" s="30">
         <v>74</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="42"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="35"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B77" s="37">
+      <c r="B77" s="30">
         <v>75</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="42"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="35"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B78" s="37">
+      <c r="B78" s="30">
         <v>76</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="42"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="35"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B79" s="37">
+      <c r="B79" s="30">
         <v>77</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="42"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="35"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B80" s="37">
+      <c r="B80" s="30">
         <v>78</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="42"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="35"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B81" s="37">
+      <c r="B81" s="30">
         <v>79</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="42"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="35"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B82" s="37">
+      <c r="B82" s="30">
         <v>80</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="42"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="35"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B83" s="37">
+      <c r="B83" s="30">
         <v>81</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="42"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="35"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B84" s="37">
+      <c r="B84" s="30">
         <v>82</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="42"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="35"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B85" s="37">
+      <c r="B85" s="30">
         <v>83</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="42"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="35"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B86" s="37">
+      <c r="B86" s="30">
         <v>84</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="42"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="35"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B87" s="37">
+      <c r="B87" s="30">
         <v>85</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="42"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="35"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B88" s="37">
+      <c r="B88" s="30">
         <v>86</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="42"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="35"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B89" s="37">
+      <c r="B89" s="30">
         <v>87</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="42"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="35"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B90" s="37">
+      <c r="B90" s="30">
         <v>88</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="42"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="35"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B91" s="37">
+      <c r="B91" s="30">
         <v>89</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="42"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="35"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B92" s="37">
+      <c r="B92" s="30">
         <v>90</v>
       </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="42"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="35"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B93" s="37">
+      <c r="B93" s="30">
         <v>91</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="42"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="35"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B94" s="37">
+      <c r="B94" s="30">
         <v>92</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="42"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="35"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B95" s="37">
+      <c r="B95" s="30">
         <v>93</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="42"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="35"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B96" s="37">
+      <c r="B96" s="30">
         <v>94</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="42"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="35"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B97" s="37">
+      <c r="B97" s="30">
         <v>95</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="42"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="35"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B98" s="37">
+      <c r="B98" s="30">
         <v>96</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="42"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="35"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B99" s="37">
+      <c r="B99" s="30">
         <v>97</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="42"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="35"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B100" s="37">
+      <c r="B100" s="30">
         <v>98</v>
       </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="42"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="35"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B101" s="37">
+      <c r="B101" s="30">
         <v>99</v>
       </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="42"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="35"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B102" s="37">
+      <c r="B102" s="30">
         <v>100</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="42"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="35"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B103" s="37">
+      <c r="B103" s="30">
         <v>101</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="42"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="35"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B104" s="37">
+      <c r="B104" s="30">
         <v>102</v>
       </c>
-      <c r="C104" s="41"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="42"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="35"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B105" s="37">
+      <c r="B105" s="30">
         <v>103</v>
       </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="42"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="35"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B106" s="37">
+      <c r="B106" s="30">
         <v>104</v>
       </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="42"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="35"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B107" s="37">
+      <c r="B107" s="30">
         <v>105</v>
       </c>
-      <c r="C107" s="41"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="42"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="35"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B108" s="37">
+      <c r="B108" s="30">
         <v>106</v>
       </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="42"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="35"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B109" s="37">
+      <c r="B109" s="30">
         <v>107</v>
       </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="42"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="35"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B110" s="37">
+      <c r="B110" s="30">
         <v>108</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="42"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="35"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B111" s="37">
+      <c r="B111" s="30">
         <v>109</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="42"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="35"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B112" s="37">
+      <c r="B112" s="30">
         <v>110</v>
       </c>
-      <c r="C112" s="41"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="42"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="35"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B113" s="37">
+      <c r="B113" s="30">
         <v>111</v>
       </c>
-      <c r="C113" s="41"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="42"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="35"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B114" s="37">
+      <c r="B114" s="30">
         <v>112</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="42"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="35"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B115" s="37">
+      <c r="B115" s="30">
         <v>113</v>
       </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="42"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="35"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B116" s="37">
+      <c r="B116" s="30">
         <v>114</v>
       </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="42"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="35"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="37">
+      <c r="B117" s="30">
         <v>115</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="42"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="35"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B118" s="37">
+      <c r="B118" s="30">
         <v>116</v>
       </c>
-      <c r="C118" s="41"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="42"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="35"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B119" s="37">
+      <c r="B119" s="30">
         <v>117</v>
       </c>
-      <c r="C119" s="41"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="42"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="35"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B120" s="37">
+      <c r="B120" s="30">
         <v>118</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="42"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="35"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B121" s="37">
+      <c r="B121" s="30">
         <v>119</v>
       </c>
-      <c r="C121" s="41"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="42"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="35"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B122" s="37">
+      <c r="B122" s="30">
         <v>120</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="42"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="35"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B123" s="37">
+      <c r="B123" s="30">
         <v>121</v>
       </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="42"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="35"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="37">
+      <c r="B124" s="30">
         <v>122</v>
       </c>
-      <c r="C124" s="41"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="42"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="35"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B125" s="37">
+      <c r="B125" s="30">
         <v>123</v>
       </c>
-      <c r="C125" s="41"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="42"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="35"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B126" s="37">
+      <c r="B126" s="30">
         <v>124</v>
       </c>
-      <c r="C126" s="41"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="42"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="35"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B127" s="37">
+      <c r="B127" s="30">
         <v>125</v>
       </c>
-      <c r="C127" s="41"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="41"/>
-      <c r="L127" s="41"/>
-      <c r="M127" s="42"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="35"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B128" s="37">
+      <c r="B128" s="30">
         <v>126</v>
       </c>
-      <c r="C128" s="41"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="42"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="35"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B129" s="37">
+      <c r="B129" s="30">
         <v>127</v>
       </c>
-      <c r="C129" s="41"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="42"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="35"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B130" s="37">
+      <c r="B130" s="30">
         <v>128</v>
       </c>
-      <c r="C130" s="41"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="42"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="35"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B131" s="37">
+      <c r="B131" s="30">
         <v>129</v>
       </c>
-      <c r="C131" s="41"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
-      <c r="M131" s="42"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="35"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B132" s="37">
+      <c r="B132" s="30">
         <v>130</v>
       </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="38"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="41"/>
-      <c r="L132" s="41"/>
-      <c r="M132" s="42"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="35"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B133" s="37">
+      <c r="B133" s="30">
         <v>131</v>
       </c>
-      <c r="C133" s="41"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="41"/>
-      <c r="M133" s="42"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="35"/>
     </row>
     <row r="134" spans="2:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="43">
+      <c r="B134" s="36">
         <v>132</v>
       </c>
-      <c r="C134" s="44"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
-      <c r="K134" s="44"/>
-      <c r="L134" s="44"/>
-      <c r="M134" s="46"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M33"/>
+  <autoFilter ref="B2:M134"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D13">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
@@ -4430,14 +4752,170 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">当前工作!$B$2:$M$134</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何在当前的设备当中增加一个app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、source build/envset.sh
 读取了环境信息，内部定义了build函数；build函数调用了build_post函数，该函数读取了文件build_slot.sh，并运行了其中的函数build_slot_post函数；
 2、build_slot_post函数中读取了文件make_image_acas.sh；
@@ -586,10 +582,6 @@
   </si>
   <si>
     <t>1、使用过几次，不太明白原理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java层使用JNI调用native方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,6 +779,26 @@
 4、方案
   1）、把数据放在system.prop下面；
   2）、系统开机的时候在重新放入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java层使用JNI调用native方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在当前的设备当中增加一个app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tobeStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,6 +1335,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1343,24 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,7 +1802,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="180" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
@@ -1815,12 +1827,12 @@
       <c r="J3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B4" s="40"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -1845,10 +1857,10 @@
       <c r="J4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:11" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="40"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1871,10 +1883,10 @@
       <c r="J5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="40"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -1891,10 +1903,10 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
@@ -1921,10 +1933,10 @@
       <c r="J7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -1941,10 +1953,10 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="7">
         <v>3</v>
       </c>
@@ -1969,10 +1981,10 @@
       <c r="J9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="7">
         <v>4</v>
       </c>
@@ -1989,10 +2001,10 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="7">
         <v>5</v>
       </c>
@@ -2009,10 +2021,10 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="45"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7">
         <v>6</v>
       </c>
@@ -2029,10 +2041,10 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="45"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="7">
         <v>7</v>
       </c>
@@ -2053,10 +2065,10 @@
       <c r="J13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="45"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="2:11" ht="36" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7">
         <v>8</v>
       </c>
@@ -2077,10 +2089,10 @@
       <c r="J14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -2097,10 +2109,10 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="42"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -2115,10 +2127,10 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -2137,10 +2149,10 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="42"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -2155,10 +2167,10 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:11" ht="48" x14ac:dyDescent="0.15">
-      <c r="B19" s="42"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -2175,10 +2187,10 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="42"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -2193,10 +2205,10 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="42"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -2211,10 +2223,10 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="42"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -2231,10 +2243,10 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="42"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -2249,10 +2261,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="45"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="42"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -2267,10 +2279,10 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="42"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -2285,10 +2297,10 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="57"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="42"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="8">
         <v>12</v>
       </c>
@@ -2303,10 +2315,10 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="42"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="8">
         <v>13</v>
       </c>
@@ -2321,10 +2333,10 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="42"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2333,10 +2345,10 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2345,7 +2357,7 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2368,10 +2380,10 @@
   <dimension ref="B1:M134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2401,7 +2413,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>80</v>
@@ -2439,7 +2451,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>90</v>
@@ -2448,13 +2460,13 @@
         <v>92</v>
       </c>
       <c r="G3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="I3" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" s="28">
         <v>41963</v>
@@ -2473,16 +2485,16 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -2503,7 +2515,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>93</v>
@@ -2527,7 +2539,7 @@
         <v>96</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>97</v>
@@ -2551,13 +2563,13 @@
         <v>99</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -2575,13 +2587,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -2599,13 +2611,13 @@
         <v>99</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
@@ -2620,16 +2632,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -2644,19 +2656,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -2670,19 +2682,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
@@ -2696,16 +2708,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -2720,16 +2732,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -2744,13 +2756,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="31"/>
@@ -2766,16 +2778,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -2790,16 +2802,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -2814,13 +2826,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="31"/>
@@ -2836,16 +2848,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2860,19 +2872,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2885,9 +2897,15 @@
       <c r="B21" s="30">
         <v>19</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -4771,149 +4789,149 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E2" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="F2" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="57" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
